--- a/3a.1.PlasticsAndCompositesEngineering/5_ClassActivity/7_Wagner/DataForFcontrolResin.xlsx
+++ b/3a.1.PlasticsAndCompositesEngineering/5_ClassActivity/7_Wagner/DataForFcontrolResin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_courses/3a.1.PlasticsAndCompositesEngineering/5_ClassActivity/7_Wagner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_7443ADB2C6A583DE6A8359819EE7C035D5B743F0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3E41732-95C7-4D9C-AFFF-FE7D12BF47E3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_7443ADB2C6A583DE6A8359819EE7C035D5B743F0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{005C66F6-1909-4EC1-BEC0-726589BD0AEA}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="795" windowWidth="20685" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="0" windowWidth="20685" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values of Lambda i abd ai" sheetId="1" r:id="rId1"/>
@@ -435,1073 +435,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Shear Viscosity'!$A$2:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>3.1415999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2831999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125664</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.251328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37699199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50265599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62831999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.25664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.51328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7699199999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0265599999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2831999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.5664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.1328</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37.699199999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50.265599999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>62.832000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0">
-                  <c:v>63.689307726240486</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79.242199999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>125.592</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0">
-                  <c:v>131.99757640067676</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>199.05099999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>315.47699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>771.0960826349617</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0">
-                  <c:v>1561.8292510956398</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0">
-                  <c:v>2677.4314600715829</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0">
-                  <c:v>3261.3176315405508</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0">
-                  <c:v>3826.4876477605144</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0">
-                  <c:v>4196.5422863685226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Shear Viscosity'!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>3376.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3296.92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3150.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3010.33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2853.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2730.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2687.77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2374.96</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2069.7600000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1826.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1659.56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1575.71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1231.94</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950.01100000000008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>805.05899999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>703.29700000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>632.67600000000004</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0">
-                  <c:v>632.47429494988171</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>561.65899999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>433.54799999999994</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0">
-                  <c:v>420.47634624124703</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>334.33600000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>259.416</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>193.32300000000001</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>128.09210268722302</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0">
-                  <c:v>79.305376532895167</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0">
-                  <c:v>55.778314392010152</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0">
-                  <c:v>49.540936299060306</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0">
-                  <c:v>44.885917018018269</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0">
-                  <c:v>42.343289788551687</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C39-426D-9A26-3D2275382810}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1165035600"/>
-        <c:axId val="1410589200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1165035600"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1410589200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1410589200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1165035600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C1F76-3982-40D5-9609-524494676192}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2824,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4808,7 +3741,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4816,7 +3748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
